--- a/Horas_invertidas.xlsx
+++ b/Horas_invertidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadim\Desktop\TFG\Machine-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E67AEA3-5377-43BF-8078-8A3E291BF0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D80DF2-F33D-47F6-9C96-248C374489FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,15 +54,9 @@
     <t>1.5</t>
   </si>
   <si>
-    <t>●Leer introducción libro</t>
-  </si>
-  <si>
     <t>●Leer hasta la página 139 del libro</t>
   </si>
   <si>
-    <t>●Estudio de los ejemplos de mnist con keras y pytorch (apéndice A).  ●Creación repositorio github</t>
-  </si>
-  <si>
     <t>Jueves</t>
   </si>
   <si>
@@ -70,6 +64,12 @@
   </si>
   <si>
     <t>● Repaso lo de ayer.</t>
+  </si>
+  <si>
+    <t>●Crear proyecto oneNote para el libro ●Leer introducción libro</t>
+  </si>
+  <si>
+    <t>●Estudio de los ejemplos de mnist del perceptrón multicapa con keras y pytorch (apéndice A).  ●Creación repositorio github</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="C1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
@@ -488,7 +488,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="3:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -502,10 +502,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -528,12 +528,12 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="8">
         <v>45351</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="7" spans="3:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="8">
         <v>45352</v>

--- a/Horas_invertidas.xlsx
+++ b/Horas_invertidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadim\Desktop\TFG\Machine-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D80DF2-F33D-47F6-9C96-248C374489FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4F0AEC-E0E7-43AB-BFC1-F9D3048DCD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Comentarios</t>
   </si>
@@ -63,20 +63,23 @@
     <t>Viernes</t>
   </si>
   <si>
-    <t>● Repaso lo de ayer.</t>
-  </si>
-  <si>
     <t>●Crear proyecto oneNote para el libro ●Leer introducción libro</t>
   </si>
   <si>
     <t>●Estudio de los ejemplos de mnist del perceptrón multicapa con keras y pytorch (apéndice A).  ●Creación repositorio github</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>● Leer hasta la página 183. ● Estudio de los ejemplos mnist de redes convolucionales con keras y pytorch (apéndice B)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,8 +101,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +119,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -169,6 +185,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:F38"/>
+  <dimension ref="B1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,7 +481,8 @@
     <col min="6" max="6" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="10"/>
       <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
@@ -476,8 +495,10 @@
       <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
@@ -488,10 +509,12 @@
         <v>8</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
       <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
@@ -504,8 +527,10 @@
       <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
       <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
@@ -516,22 +541,28 @@
         <v>4</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="8">
         <v>45350</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F5" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
       <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
@@ -540,8 +571,10 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="3:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
       <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
@@ -550,152 +583,198 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="7"/>
       <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="7"/>
       <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="7"/>
       <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="7"/>
       <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="7"/>
       <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="7"/>
       <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="7"/>
       <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="7"/>
       <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="7"/>
       <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="7"/>
       <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="7"/>
       <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="7"/>
       <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
       <c r="E20" s="7"/>
       <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
       <c r="E21" s="7"/>
       <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
       <c r="E22" s="7"/>
       <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="3"/>
       <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="3"/>
       <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="E25" s="3"/>
       <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="3"/>
       <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="3"/>
       <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="10"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="3"/>
       <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="11"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
       <c r="E29" s="3"/>
       <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="3"/>
       <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="3"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="3"/>

--- a/Horas_invertidas.xlsx
+++ b/Horas_invertidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadim\Desktop\TFG\Machine-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4F0AEC-E0E7-43AB-BFC1-F9D3048DCD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E0255C-0A66-4113-9978-70D08CFE15B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Comentarios</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>● Leer hasta la página 183. ● Estudio de los ejemplos mnist de redes convolucionales con keras y pytorch (apéndice B)</t>
+  </si>
+  <si>
+    <t>● Leer hasta la página 215 ●Estudio de los ejemplos de predicción stock market con RNN keras y pytorch (apéndice C)</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t>●Leer hasta la página 280 del libro ●Avanzar apuntes</t>
   </si>
 </sst>
 </file>
@@ -470,7 +479,7 @@
   <dimension ref="B1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +570,7 @@
       </c>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
       <c r="C6" s="7" t="s">
         <v>10</v>
@@ -569,8 +578,12 @@
       <c r="D6" s="8">
         <v>45351</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="9"/>
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -585,82 +598,126 @@
       <c r="F7" s="9"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9"/>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8">
+        <v>45353</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="8">
+        <v>45354</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9"/>
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8">
+        <v>45355</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="8">
+        <v>45356</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9"/>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="8">
+        <v>45357</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9"/>
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="8">
+        <v>45358</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9"/>
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="8">
+        <v>45359</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9"/>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="8">
+        <v>45360</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9"/>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="8">
+        <v>45361</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9"/>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="8">
+        <v>45362</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9"/>
       <c r="G17" s="11"/>

--- a/Horas_invertidas.xlsx
+++ b/Horas_invertidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadim\Desktop\TFG\Machine-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E0255C-0A66-4113-9978-70D08CFE15B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7975530-9A50-484C-890C-16DEABD1510E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Comentarios</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>●Leer hasta la página 280 del libro ●Avanzar apuntes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">●Estudio de los ejemplos cifar con early stop en keras y pytorch (apéndice D) </t>
   </si>
 </sst>
 </file>
@@ -118,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +137,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -196,6 +205,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,7 +497,7 @@
   <dimension ref="B1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,14 +606,14 @@
     </row>
     <row r="7" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="13">
         <v>45352</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="9"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -616,17 +634,17 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="13">
         <v>45354</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="7" t="s">
         <v>5</v>
@@ -634,8 +652,12 @@
       <c r="D10" s="8">
         <v>45355</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9"/>
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">

--- a/Horas_invertidas.xlsx
+++ b/Horas_invertidas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadim\Desktop\TFG\Machine-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7975530-9A50-484C-890C-16DEABD1510E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915BA751-E2D7-4120-8094-79FA410979EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
     <t>●Leer hasta la página 280 del libro ●Avanzar apuntes</t>
   </si>
   <si>
-    <t xml:space="preserve">●Estudio de los ejemplos cifar con early stop en keras y pytorch (apéndice D) </t>
+    <t xml:space="preserve">●Leer hasta la página 305 ●Estudio de los ejemplos cifar con early stop en keras y pytorch (apéndice D) </t>
   </si>
 </sst>
 </file>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +644,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="7" t="s">
         <v>5</v>

--- a/Horas_invertidas.xlsx
+++ b/Horas_invertidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadim\Desktop\TFG\Machine-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915BA751-E2D7-4120-8094-79FA410979EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B1D73A-8FA1-4DB3-8A6A-B7B54FE26DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Comentarios</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t xml:space="preserve">●Leer hasta la página 305 ●Estudio de los ejemplos cifar con early stop en keras y pytorch (apéndice D) </t>
+  </si>
+  <si>
+    <t>●Leer hasta la página 370 ●Estudio de los ejemplos FCN con TL en keras y pytorch (apéndice E)</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
   <dimension ref="B1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +663,7 @@
       </c>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="7" t="s">
         <v>6</v>
@@ -668,8 +671,12 @@
       <c r="D11" s="8">
         <v>45356</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9"/>
+      <c r="E11" s="7">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">

--- a/Horas_invertidas.xlsx
+++ b/Horas_invertidas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadim\Desktop\TFG\Machine-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B1D73A-8FA1-4DB3-8A6A-B7B54FE26DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED4B54F-8280-40CB-B9B6-E60D5F2FA28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Comentarios</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>●Leer hasta la página 370 ●Estudio de los ejemplos FCN con TL en keras y pytorch (apéndice E)</t>
+  </si>
+  <si>
+    <t>●Leer hasta la página 404 ● Estudio de los ejemplos transformer  con TL en keras y pytorch (apéndice F)</t>
   </si>
 </sst>
 </file>
@@ -499,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +682,7 @@
       </c>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
       <c r="C12" s="7" t="s">
         <v>7</v>
@@ -687,20 +690,24 @@
       <c r="D12" s="8">
         <v>45357</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="9"/>
+      <c r="E12" s="7">
+        <v>4</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="13">
         <v>45358</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">

--- a/Horas_invertidas.xlsx
+++ b/Horas_invertidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadim\Desktop\TFG\Machine-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED4B54F-8280-40CB-B9B6-E60D5F2FA28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9775D964-D34C-4C17-9DAE-6F24CF8240B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Comentarios</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>●Leer hasta la página 404 ● Estudio de los ejemplos transformer  con TL en keras y pytorch (apéndice F)</t>
+  </si>
+  <si>
+    <t>●Libro terminado ●Estudio ejemplo transformer keras con hugging face</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
   <dimension ref="B1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +713,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
       <c r="C14" s="7" t="s">
         <v>11</v>
@@ -718,8 +721,12 @@
       <c r="D14" s="8">
         <v>45359</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9"/>
+      <c r="E14" s="7">
+        <v>3</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">

--- a/Horas_invertidas.xlsx
+++ b/Horas_invertidas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadim\Desktop\TFG\Machine-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9775D964-D34C-4C17-9DAE-6F24CF8240B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEC2220-B7FE-4E52-8568-F4EADC7F3EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Comentarios</t>
   </si>
@@ -94,13 +94,19 @@
   </si>
   <si>
     <t>●Libro terminado ●Estudio ejemplo transformer keras con hugging face</t>
+  </si>
+  <si>
+    <t>● Curso de verano del moodle, capítulo 1</t>
+  </si>
+  <si>
+    <t>● Curso de verano del moodle, capítulo 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +131,14 @@
     <font>
       <sz val="11"/>
       <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,6 +235,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -506,7 +523,7 @@
   <dimension ref="B1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,8 +754,12 @@
       <c r="D15" s="8">
         <v>45360</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9"/>
+      <c r="E15" s="7">
+        <v>2</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -749,8 +770,12 @@
       <c r="D16" s="8">
         <v>45361</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9"/>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -762,45 +787,65 @@
         <v>45362</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="9"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="8">
+        <v>45363</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9"/>
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="8">
+        <v>45364</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9"/>
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="8">
+        <v>45365</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9"/>
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="8">
+        <v>45366</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="9"/>
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="8">
+        <v>45367</v>
+      </c>
       <c r="E22" s="7"/>
       <c r="F22" s="9"/>
       <c r="G22" s="11"/>

--- a/Horas_invertidas.xlsx
+++ b/Horas_invertidas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadim\Desktop\TFG\Machine-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEC2220-B7FE-4E52-8568-F4EADC7F3EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DB93F6-8A8A-4FD9-A40D-DCB5A4304F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Comentarios</t>
   </si>
@@ -100,13 +100,19 @@
   </si>
   <si>
     <t>● Curso de verano del moodle, capítulo 2</t>
+  </si>
+  <si>
+    <t>● Curso de verano del moodle, capítulo 2 ● Curso de verano del moodle, capítulo 3</t>
+  </si>
+  <si>
+    <t>● Investigar/Avanzar TFG en overleaf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,14 +137,6 @@
     <font>
       <sz val="11"/>
       <color theme="2" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -197,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -235,9 +233,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -522,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +773,7 @@
       </c>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="7" t="s">
         <v>5</v>
@@ -786,8 +781,12 @@
       <c r="D17" s="8">
         <v>45362</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="15"/>
+      <c r="E17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -798,8 +797,12 @@
       <c r="D18" s="8">
         <v>45363</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9"/>
+      <c r="E18" s="7">
+        <v>5</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">

--- a/Horas_invertidas.xlsx
+++ b/Horas_invertidas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadim\Desktop\TFG\Machine-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DB93F6-8A8A-4FD9-A40D-DCB5A4304F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF41C0F-45CF-4697-9C29-73B7EE3D384D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="60" windowWidth="26385" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="38">
   <si>
     <t>Comentarios</t>
   </si>
@@ -105,7 +105,40 @@
     <t>● Curso de verano del moodle, capítulo 2 ● Curso de verano del moodle, capítulo 3</t>
   </si>
   <si>
-    <t>● Investigar/Avanzar TFG en overleaf</t>
+    <t>● Investigar/avanzar TFG en overleaf</t>
+  </si>
+  <si>
+    <t>● Investigar/avanzar TFG en overleaf: marco teorico</t>
+  </si>
+  <si>
+    <t>●Marco teórico terminado en overleaf</t>
+  </si>
+  <si>
+    <t>●Papers " Deep learning for rare disease: A scoping review" y "The use of machine learning in rare diseases: a scoping review".</t>
+  </si>
+  <si>
+    <t>● Investigar/avanzar TFG en overleaf: estado del arte</t>
+  </si>
+  <si>
+    <t>●Investigar sobre enfermedades raras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">●Reeler los 2 papers de ayer  ●Buscar más información respecto a deep learning con enfermedades raras </t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ●Investigar/avanzar TFG en overleaf: estado del arte, introduccion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ●Investigar/avanzar TFG en overleaf: introduccion  ●Añadir punto de segmentacion y predicción al marco teórico</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ●Investigar/avanzar TFG en overleaf: Herramientas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ●Investigar/avanzar TFG en overleaf: Metodología</t>
   </si>
 </sst>
 </file>
@@ -142,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +197,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -195,23 +234,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -234,6 +258,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G38"/>
+  <dimension ref="B1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,443 +571,1228 @@
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" customWidth="1"/>
+    <col min="6" max="6" width="125.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="10"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="7" t="s">
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="3">
         <v>45347</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="3">
         <v>45348</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="2">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="7" t="s">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="3">
         <v>45349</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="2">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="7" t="s">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="3">
         <v>45350</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="7" t="s">
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="3">
         <v>45351</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="8">
         <v>45352</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="7" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="3">
         <v>45353</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="2">
         <v>3</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="8">
         <v>45354</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="7" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="3">
         <v>45355</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="2">
         <v>2</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="7" t="s">
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="3">
         <v>45356</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="2">
         <v>3</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="7" t="s">
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="3">
         <v>45357</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="2">
         <v>4</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="8">
         <v>45358</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="7" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="3">
         <v>45359</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="2">
         <v>3</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="3">
         <v>45360</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="2">
         <v>2</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="3">
         <v>45361</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="7" t="s">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="3">
         <v>45362</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="3">
         <v>45363</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="2">
         <v>5</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="11"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="11">
         <v>45364</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="11"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="3">
         <v>45365</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="11"/>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="3">
         <v>45366</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="11"/>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="3">
         <v>45367</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="11"/>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="11"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3">
+        <v>45368</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="11"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>45369</v>
+      </c>
+      <c r="E24" s="2">
+        <v>6</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="11"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3">
+        <v>45370</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="11"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="8">
+        <v>45371</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="11"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3">
+        <v>45372</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="11"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="8">
+        <v>45373</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="11"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="8">
+        <v>45374</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="11"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="8">
+        <v>45375</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3">
+        <v>45376</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="3">
+        <v>45377</v>
+      </c>
+      <c r="E32" s="2">
+        <v>5</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="3">
+        <v>45378</v>
+      </c>
+      <c r="E33" s="13">
+        <v>1</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="8">
+        <v>45379</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="3">
+        <v>45380</v>
+      </c>
+      <c r="E35" s="13">
+        <v>2</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="3">
+        <v>45381</v>
+      </c>
+      <c r="E36" s="13">
+        <v>4</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="C37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3">
+        <v>45382</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="8">
+        <v>45383</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="C39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="3">
+        <v>45384</v>
+      </c>
+      <c r="E39" s="13">
+        <v>3</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="C40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="3">
+        <v>45385</v>
+      </c>
+      <c r="E40" s="13">
+        <v>2</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="C41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="8">
+        <v>45386</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="C42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="8">
+        <v>45387</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="C43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="3">
+        <v>45388</v>
+      </c>
+      <c r="E43" s="13">
+        <v>1</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="3">
+        <v>45389</v>
+      </c>
+      <c r="E44" s="13">
+        <v>5</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="C45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="3">
+        <v>45390</v>
+      </c>
+      <c r="E45" s="13">
+        <v>1</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="C46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="8">
+        <v>45391</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="C47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="3">
+        <v>45392</v>
+      </c>
+      <c r="E47" s="13">
+        <v>1</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="C48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="3">
+        <v>45393</v>
+      </c>
+      <c r="E48" s="13">
+        <v>2</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="C49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="3">
+        <v>45394</v>
+      </c>
+      <c r="E49" s="13">
+        <v>3</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="C50" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="8">
+        <v>45395</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="C51" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="8">
+        <v>45396</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="C52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3">
+        <v>45397</v>
+      </c>
+      <c r="E52" s="13">
+        <v>2</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="C53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="3">
+        <v>45398</v>
+      </c>
+      <c r="E53" s="13">
+        <v>2</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="C54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="3">
+        <v>45399</v>
+      </c>
+      <c r="E54" s="13">
+        <v>1</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="C55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="8">
+        <v>45400</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="C56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="8">
+        <v>45401</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="C57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="3">
+        <v>45402</v>
+      </c>
+      <c r="E57" s="13">
+        <v>4</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="C58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="3">
+        <v>45403</v>
+      </c>
+      <c r="E58" s="13">
+        <v>1</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="C59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="3">
+        <v>45404</v>
+      </c>
+      <c r="E59" s="13"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="C60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="3">
+        <v>45405</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="C61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="3">
+        <v>45406</v>
+      </c>
+      <c r="E61" s="13"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="5"/>
+      <c r="C62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="3">
+        <v>45407</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="5"/>
+      <c r="C63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="3">
+        <v>45408</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
+      <c r="C64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="3">
+        <v>45409</v>
+      </c>
+      <c r="E64" s="13"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="C65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="3">
+        <v>45410</v>
+      </c>
+      <c r="E65" s="13"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="C66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="3">
+        <v>45411</v>
+      </c>
+      <c r="E66" s="13"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+      <c r="C67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="3">
+        <v>45412</v>
+      </c>
+      <c r="E67" s="13"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+      <c r="C68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="3">
+        <v>45413</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+      <c r="C69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="3">
+        <v>45414</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="C70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="3">
+        <v>45415</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="C71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="3">
+        <v>45416</v>
+      </c>
+      <c r="E71" s="13"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="C72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="3">
+        <v>45417</v>
+      </c>
+      <c r="E72" s="13"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="C73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="3">
+        <v>45418</v>
+      </c>
+      <c r="E73" s="13"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+      <c r="C74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="3">
+        <v>45419</v>
+      </c>
+      <c r="E74" s="13"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="6"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="C75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="3">
+        <v>45420</v>
+      </c>
+      <c r="E75" s="13"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="C76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="3">
+        <v>45421</v>
+      </c>
+      <c r="E76" s="13"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="6"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="C77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="3">
+        <v>45422</v>
+      </c>
+      <c r="E77" s="13"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+      <c r="C78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="3">
+        <v>45423</v>
+      </c>
+      <c r="E78" s="13"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="C79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="3">
+        <v>45424</v>
+      </c>
+      <c r="E79" s="13"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="6"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+      <c r="C80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="3">
+        <v>45425</v>
+      </c>
+      <c r="E80" s="13"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="6"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="C81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="3">
+        <v>45426</v>
+      </c>
+      <c r="E81" s="13"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="6"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+      <c r="C82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="3">
+        <v>45427</v>
+      </c>
+      <c r="E82" s="13"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="6"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="C83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="3">
+        <v>45428</v>
+      </c>
+      <c r="E83" s="13"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="6"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="C84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="3">
+        <v>45429</v>
+      </c>
+      <c r="E84" s="13"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="6"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="C85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="3">
+        <v>45430</v>
+      </c>
+      <c r="E85" s="13"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="6"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="C86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="3">
+        <v>45431</v>
+      </c>
+      <c r="E86" s="13"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="6"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+      <c r="C87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="3">
+        <v>45432</v>
+      </c>
+      <c r="E87" s="13"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="6"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+      <c r="C88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="3">
+        <v>45433</v>
+      </c>
+      <c r="E88" s="13"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Horas_invertidas.xlsx
+++ b/Horas_invertidas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadim\Desktop\TFG\Machine-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF41C0F-45CF-4697-9C29-73B7EE3D384D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AA84BF-79D3-451A-879C-9EEACCA762C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="60" windowWidth="26385" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="38">
   <si>
     <t>Comentarios</t>
   </si>
@@ -563,7 +563,7 @@
   <dimension ref="B1:G88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,8 +1442,12 @@
       <c r="D59" s="3">
         <v>45404</v>
       </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="15"/>
+      <c r="E59" s="13">
+        <v>2</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="G59" s="6"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
@@ -1454,8 +1458,12 @@
       <c r="D60" s="3">
         <v>45405</v>
       </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="15"/>
+      <c r="E60" s="13">
+        <v>2</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="G60" s="6"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
@@ -1466,8 +1474,12 @@
       <c r="D61" s="3">
         <v>45406</v>
       </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="15"/>
+      <c r="E61" s="13">
+        <v>1</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="G61" s="6"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
@@ -1478,32 +1490,36 @@
       <c r="D62" s="3">
         <v>45407</v>
       </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="15"/>
+      <c r="E62" s="13">
+        <v>1</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="G62" s="6"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="8">
         <v>45408</v>
       </c>
-      <c r="E63" s="13"/>
-      <c r="F63" s="15"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="16"/>
       <c r="G63" s="6"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="8">
         <v>45409</v>
       </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="15"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="16"/>
       <c r="G64" s="6"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">

--- a/Horas_invertidas.xlsx
+++ b/Horas_invertidas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadim\Desktop\TFG\Machine-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AA84BF-79D3-451A-879C-9EEACCA762C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332B2E29-0111-4D67-A703-D518CE8C8687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="38">
   <si>
     <t>Comentarios</t>
   </si>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,8 +1530,12 @@
       <c r="D65" s="3">
         <v>45410</v>
       </c>
-      <c r="E65" s="13"/>
-      <c r="F65" s="15"/>
+      <c r="E65" s="13">
+        <v>3</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="G65" s="6"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
@@ -1542,8 +1546,12 @@
       <c r="D66" s="3">
         <v>45411</v>
       </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="15"/>
+      <c r="E66" s="13">
+        <v>5</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="G66" s="6"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
@@ -1554,8 +1562,12 @@
       <c r="D67" s="3">
         <v>45412</v>
       </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="15"/>
+      <c r="E67" s="13">
+        <v>3</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="G67" s="6"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">

--- a/Horas_invertidas.xlsx
+++ b/Horas_invertidas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadim\Desktop\TFG\Machine-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332B2E29-0111-4D67-A703-D518CE8C8687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8FFD1E-C2AE-419A-8615-CB642B6C42E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31830" yWindow="615" windowWidth="21555" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="42">
   <si>
     <t>Comentarios</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t xml:space="preserve"> ●Investigar/avanzar TFG en overleaf: Metodología</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ●Investigar/avanzar TFG en overleaf: Resultados</t>
+  </si>
+  <si>
+    <t>●Correcciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ●Investigar/avanzar TFG en overleaf: Resultados </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ●Investigar/avanzar TFG en overleaf: Resultados  ●Investigar/avanzar TFG en overleaf: Conclusión ●Correcciones</t>
   </si>
 </sst>
 </file>
@@ -562,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +583,7 @@
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="125.7109375" customWidth="1"/>
+    <col min="6" max="6" width="115.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -1752,14 +1764,14 @@
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="5"/>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="8">
         <v>45428</v>
       </c>
-      <c r="E83" s="13"/>
-      <c r="F83" s="15"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="16"/>
       <c r="G83" s="6"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
@@ -1770,8 +1782,12 @@
       <c r="D84" s="3">
         <v>45429</v>
       </c>
-      <c r="E84" s="13"/>
-      <c r="F84" s="15"/>
+      <c r="E84" s="13">
+        <v>2</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="G84" s="6"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
@@ -1782,8 +1798,12 @@
       <c r="D85" s="3">
         <v>45430</v>
       </c>
-      <c r="E85" s="13"/>
-      <c r="F85" s="15"/>
+      <c r="E85" s="13">
+        <v>5</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="G85" s="6"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
@@ -1794,8 +1814,12 @@
       <c r="D86" s="3">
         <v>45431</v>
       </c>
-      <c r="E86" s="13"/>
-      <c r="F86" s="15"/>
+      <c r="E86" s="13">
+        <v>5</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="G86" s="6"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
@@ -1806,8 +1830,12 @@
       <c r="D87" s="3">
         <v>45432</v>
       </c>
-      <c r="E87" s="13"/>
-      <c r="F87" s="15"/>
+      <c r="E87" s="13">
+        <v>5</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="G87" s="6"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
@@ -1818,8 +1846,12 @@
       <c r="D88" s="3">
         <v>45433</v>
       </c>
-      <c r="E88" s="13"/>
-      <c r="F88" s="15"/>
+      <c r="E88" s="13">
+        <v>8</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="G88" s="6"/>
     </row>
   </sheetData>
